--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H2">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.343040621923993</v>
+        <v>0.4030655</v>
       </c>
       <c r="N2">
-        <v>0.343040621923993</v>
+        <v>0.8061309999999999</v>
       </c>
       <c r="O2">
-        <v>0.01217833549845951</v>
+        <v>0.01062191174620465</v>
       </c>
       <c r="P2">
-        <v>0.01217833549845951</v>
+        <v>0.01057308397011603</v>
       </c>
       <c r="Q2">
-        <v>0.1014559233045007</v>
+        <v>0.1098430069945</v>
       </c>
       <c r="R2">
-        <v>0.1014559233045007</v>
+        <v>0.439372027978</v>
       </c>
       <c r="S2">
-        <v>0.01217833549845951</v>
+        <v>0.002290197624463458</v>
       </c>
       <c r="T2">
-        <v>0.01217833549845951</v>
+        <v>0.001906823867840385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.272519</v>
+      </c>
+      <c r="H3">
+        <v>0.545038</v>
+      </c>
+      <c r="I3">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J3">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.321089</v>
+      </c>
+      <c r="O3">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P3">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q3">
+        <v>0.02916761773033334</v>
+      </c>
+      <c r="R3">
+        <v>0.175005706382</v>
+      </c>
+      <c r="S3">
+        <v>0.0006081371100903345</v>
+      </c>
+      <c r="T3">
+        <v>0.000759504558069348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.272519</v>
+      </c>
+      <c r="H4">
+        <v>0.545038</v>
+      </c>
+      <c r="I4">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J4">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.187586</v>
+      </c>
+      <c r="O4">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P4">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q4">
+        <v>0.01704024971133333</v>
+      </c>
+      <c r="R4">
+        <v>0.102241498268</v>
+      </c>
+      <c r="S4">
+        <v>0.0003552846965589151</v>
+      </c>
+      <c r="T4">
+        <v>0.0004437162968211203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.272519</v>
+      </c>
+      <c r="H5">
+        <v>0.545038</v>
+      </c>
+      <c r="I5">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J5">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.542777</v>
+      </c>
+      <c r="O5">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P5">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q5">
+        <v>0.04930568175433333</v>
+      </c>
+      <c r="R5">
+        <v>0.295834090526</v>
+      </c>
+      <c r="S5">
+        <v>0.001028010415191743</v>
+      </c>
+      <c r="T5">
+        <v>0.001283885793394375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.272519</v>
+      </c>
+      <c r="H6">
+        <v>0.545038</v>
+      </c>
+      <c r="I6">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J6">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>37.1930565</v>
+      </c>
+      <c r="N6">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O6">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P6">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q6">
+        <v>10.1358145643235</v>
+      </c>
+      <c r="R6">
+        <v>40.543258257294</v>
+      </c>
+      <c r="S6">
+        <v>0.2113290510917833</v>
+      </c>
+      <c r="T6">
+        <v>0.175953059371581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.736576</v>
+      </c>
+      <c r="I7">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J7">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4030655</v>
+      </c>
+      <c r="N7">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P7">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q7">
+        <v>0.09896279124266666</v>
+      </c>
+      <c r="R7">
+        <v>0.593776747456</v>
+      </c>
+      <c r="S7">
+        <v>0.002063348005627492</v>
+      </c>
+      <c r="T7">
+        <v>0.002576922521509325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.736576</v>
+      </c>
+      <c r="I8">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J8">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.321089</v>
+      </c>
+      <c r="O8">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P8">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q8">
+        <v>0.02627849458488889</v>
+      </c>
+      <c r="R8">
+        <v>0.236506451264</v>
+      </c>
+      <c r="S8">
+        <v>0.0005478996571516093</v>
+      </c>
+      <c r="T8">
+        <v>0.001026410689464749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.736576</v>
+      </c>
+      <c r="I9">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J9">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.187586</v>
+      </c>
+      <c r="O9">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P9">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q9">
+        <v>0.01535237172622222</v>
+      </c>
+      <c r="R9">
+        <v>0.138171345536</v>
+      </c>
+      <c r="S9">
+        <v>0.0003200928872880783</v>
+      </c>
+      <c r="T9">
+        <v>0.0005996476852023411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.736576</v>
+      </c>
+      <c r="I10">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J10">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.542777</v>
+      </c>
+      <c r="O10">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P10">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q10">
+        <v>0.04442183461688889</v>
+      </c>
+      <c r="R10">
+        <v>0.399796511552</v>
+      </c>
+      <c r="S10">
+        <v>0.00092618349494931</v>
+      </c>
+      <c r="T10">
+        <v>0.001735070696273022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.736576</v>
+      </c>
+      <c r="I11">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J11">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>37.1930565</v>
+      </c>
+      <c r="N11">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P11">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q11">
+        <v>9.131837594847999</v>
+      </c>
+      <c r="R11">
+        <v>54.791025569088</v>
+      </c>
+      <c r="S11">
+        <v>0.1903963969937036</v>
+      </c>
+      <c r="T11">
+        <v>0.2377867243379024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.295754837241929</v>
-      </c>
-      <c r="H3">
-        <v>0.295754837241929</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="N3">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="O3">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="P3">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="Q3">
-        <v>8.22939711628652</v>
-      </c>
-      <c r="R3">
-        <v>8.22939711628652</v>
-      </c>
-      <c r="S3">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="T3">
-        <v>0.9878216645015405</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.396319</v>
+      </c>
+      <c r="I12">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J12">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4030655</v>
+      </c>
+      <c r="N12">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P12">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q12">
+        <v>0.05324750529816666</v>
+      </c>
+      <c r="R12">
+        <v>0.319485031789</v>
+      </c>
+      <c r="S12">
+        <v>0.001110196392826106</v>
+      </c>
+      <c r="T12">
+        <v>0.001386528147539499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.396319</v>
+      </c>
+      <c r="I13">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J13">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.321089</v>
+      </c>
+      <c r="O13">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P13">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q13">
+        <v>0.01413929682122222</v>
+      </c>
+      <c r="R13">
+        <v>0.127253671391</v>
+      </c>
+      <c r="S13">
+        <v>0.0002948005965747847</v>
+      </c>
+      <c r="T13">
+        <v>0.0005522662400593828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.396319</v>
+      </c>
+      <c r="I14">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J14">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.187586</v>
+      </c>
+      <c r="O14">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P14">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q14">
+        <v>0.008260432881555554</v>
+      </c>
+      <c r="R14">
+        <v>0.074343895934</v>
+      </c>
+      <c r="S14">
+        <v>0.0001722278393500791</v>
+      </c>
+      <c r="T14">
+        <v>0.0003226439239830059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.396319</v>
+      </c>
+      <c r="I15">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J15">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.542777</v>
+      </c>
+      <c r="O15">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P15">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q15">
+        <v>0.02390142642922222</v>
+      </c>
+      <c r="R15">
+        <v>0.215112837863</v>
+      </c>
+      <c r="S15">
+        <v>0.0004983384152277777</v>
+      </c>
+      <c r="T15">
+        <v>0.000933564877590673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.396319</v>
+      </c>
+      <c r="I16">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J16">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.1930565</v>
+      </c>
+      <c r="N16">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O16">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P16">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q16">
+        <v>4.9134383196745</v>
+      </c>
+      <c r="R16">
+        <v>29.480629918047</v>
+      </c>
+      <c r="S16">
+        <v>0.1024438885602404</v>
+      </c>
+      <c r="T16">
+        <v>0.1279425297632195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.211063</v>
+      </c>
+      <c r="I17">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J17">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4030655</v>
+      </c>
+      <c r="N17">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P17">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q17">
+        <v>0.02835740454216666</v>
+      </c>
+      <c r="R17">
+        <v>0.170144427253</v>
+      </c>
+      <c r="S17">
+        <v>0.0005912443795504543</v>
+      </c>
+      <c r="T17">
+        <v>0.0007384071679736005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.211063</v>
+      </c>
+      <c r="I18">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J18">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.321089</v>
+      </c>
+      <c r="O18">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P18">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q18">
+        <v>0.007530000845222223</v>
+      </c>
+      <c r="R18">
+        <v>0.067770007607</v>
+      </c>
+      <c r="S18">
+        <v>0.0001569985247108107</v>
+      </c>
+      <c r="T18">
+        <v>0.0002941140077201788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.211063</v>
+      </c>
+      <c r="I19">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J19">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.187586</v>
+      </c>
+      <c r="O19">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P19">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q19">
+        <v>0.004399162657555556</v>
+      </c>
+      <c r="R19">
+        <v>0.039592463918</v>
+      </c>
+      <c r="S19">
+        <v>9.1721377114763E-05</v>
+      </c>
+      <c r="T19">
+        <v>0.0001718267217257441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.211063</v>
+      </c>
+      <c r="I20">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J20">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.542777</v>
+      </c>
+      <c r="O20">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P20">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q20">
+        <v>0.01272890466122222</v>
+      </c>
+      <c r="R20">
+        <v>0.114560141951</v>
+      </c>
+      <c r="S20">
+        <v>0.0002653942933173036</v>
+      </c>
+      <c r="T20">
+        <v>0.0004971777879912905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.211063</v>
+      </c>
+      <c r="I21">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J21">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.1930565</v>
+      </c>
+      <c r="N21">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O21">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P21">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q21">
+        <v>2.6166926946865</v>
+      </c>
+      <c r="R21">
+        <v>15.700156168119</v>
+      </c>
+      <c r="S21">
+        <v>0.05455735014266289</v>
+      </c>
+      <c r="T21">
+        <v>0.0681368648977576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.13889</v>
+      </c>
+      <c r="I22">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J22">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4030655</v>
+      </c>
+      <c r="N22">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P22">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q22">
+        <v>0.01866058909833333</v>
+      </c>
+      <c r="R22">
+        <v>0.11196353459</v>
+      </c>
+      <c r="S22">
+        <v>0.0003890683439340984</v>
+      </c>
+      <c r="T22">
+        <v>0.0004859088118706423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.13889</v>
+      </c>
+      <c r="I23">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J23">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.321089</v>
+      </c>
+      <c r="O23">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P23">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q23">
+        <v>0.004955116801111112</v>
+      </c>
+      <c r="R23">
+        <v>0.04459605121000001</v>
+      </c>
+      <c r="S23">
+        <v>0.0001033128738674448</v>
+      </c>
+      <c r="T23">
+        <v>0.000193541712816816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.13889</v>
+      </c>
+      <c r="I24">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J24">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.187586</v>
+      </c>
+      <c r="O24">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P24">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q24">
+        <v>0.002894868837777778</v>
+      </c>
+      <c r="R24">
+        <v>0.02605381954</v>
+      </c>
+      <c r="S24">
+        <v>6.035724910320348E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001130705684107996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.13889</v>
+      </c>
+      <c r="I25">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J25">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.542777</v>
+      </c>
+      <c r="O25">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P25">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q25">
+        <v>0.008376255281111111</v>
+      </c>
+      <c r="R25">
+        <v>0.07538629753000001</v>
+      </c>
+      <c r="S25">
+        <v>0.0001746427057269171</v>
+      </c>
+      <c r="T25">
+        <v>0.0003271678265452038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.13889</v>
+      </c>
+      <c r="I26">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J26">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>37.1930565</v>
+      </c>
+      <c r="N26">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O26">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P26">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q26">
+        <v>1.721914539095</v>
+      </c>
+      <c r="R26">
+        <v>10.33148723457</v>
+      </c>
+      <c r="S26">
+        <v>0.03590146241318683</v>
+      </c>
+      <c r="T26">
+        <v>0.04483746163775533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4971385</v>
+      </c>
+      <c r="H27">
+        <v>0.994277</v>
+      </c>
+      <c r="I27">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J27">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.4030655</v>
+      </c>
+      <c r="N27">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P27">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q27">
+        <v>0.20037937807175</v>
+      </c>
+      <c r="R27">
+        <v>0.8015175122869999</v>
+      </c>
+      <c r="S27">
+        <v>0.004177856999803047</v>
+      </c>
+      <c r="T27">
+        <v>0.00347849345338258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4971385</v>
+      </c>
+      <c r="H28">
+        <v>0.994277</v>
+      </c>
+      <c r="I28">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J28">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.321089</v>
+      </c>
+      <c r="O28">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P28">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q28">
+        <v>0.05320856794216667</v>
+      </c>
+      <c r="R28">
+        <v>0.319251407653</v>
+      </c>
+      <c r="S28">
+        <v>0.001109384559258781</v>
+      </c>
+      <c r="T28">
+        <v>0.001385514245765464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4971385</v>
+      </c>
+      <c r="H29">
+        <v>0.994277</v>
+      </c>
+      <c r="I29">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J29">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.187586</v>
+      </c>
+      <c r="O29">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P29">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q29">
+        <v>0.03108540755366666</v>
+      </c>
+      <c r="R29">
+        <v>0.186512445322</v>
+      </c>
+      <c r="S29">
+        <v>0.0006481225203389643</v>
+      </c>
+      <c r="T29">
+        <v>0.000809442476404238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4971385</v>
+      </c>
+      <c r="H30">
+        <v>0.994277</v>
+      </c>
+      <c r="I30">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J30">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.542777</v>
+      </c>
+      <c r="O30">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P30">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q30">
+        <v>0.08994511453816666</v>
+      </c>
+      <c r="R30">
+        <v>0.5396706872289999</v>
+      </c>
+      <c r="S30">
+        <v>0.001875331832983389</v>
+      </c>
+      <c r="T30">
+        <v>0.002342108467664234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4971385</v>
+      </c>
+      <c r="H31">
+        <v>0.994277</v>
+      </c>
+      <c r="I31">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J31">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.1930565</v>
+      </c>
+      <c r="N31">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O31">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P31">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q31">
+        <v>18.49010031882525</v>
+      </c>
+      <c r="R31">
+        <v>73.960401275301</v>
+      </c>
+      <c r="S31">
+        <v>0.3855136980034144</v>
+      </c>
+      <c r="T31">
+        <v>0.320979601445766</v>
       </c>
     </row>
   </sheetData>
